--- a/alpha-beta-CROWN/CPU_results.xlsx
+++ b/alpha-beta-CROWN/CPU_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disertatie\Securitate-UVT\An 2\VerificareFormala\proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A40A41-1C93-4B54-A7D9-2A0EC142D141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB81665-B295-4FAB-A148-DCD07101596A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2992BEC-8E29-414C-B2AA-E4265BC1FA38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>Alpha-Beta-Crown</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Avg. perturbation</t>
   </si>
   <si>
-    <t>Safe/unsat</t>
-  </si>
-  <si>
-    <t>Unsafe/sat</t>
-  </si>
-  <si>
     <t>Benchmark</t>
   </si>
   <si>
@@ -195,6 +189,15 @@
   </si>
   <si>
     <t>11: Entlebucher</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>safe/unsat</t>
+  </si>
+  <si>
+    <t>unsafe/sat</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -256,11 +259,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2433CCFD-433C-46D6-A0F5-3CF9D0B7C020}">
-  <dimension ref="A2:J22"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -591,12 +603,11 @@
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="18.69921875" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -604,9 +615,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -615,41 +626,38 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>2.0027E-5</v>
       </c>
       <c r="F5" s="5">
@@ -658,28 +666,25 @@
       <c r="G5" s="5">
         <v>6.6467999999999998</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
+      <c r="H5" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
         <v>34.044600000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="5">
         <v>2.0000000000000001E-4</v>
@@ -690,28 +695,25 @@
       <c r="G6" s="5">
         <v>8.1515000000000004</v>
       </c>
-      <c r="H6" s="5">
-        <v>1</v>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
         <v>21.725999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
         <v>2E-3</v>
@@ -722,30 +724,27 @@
       <c r="G7" s="5">
         <v>7.9019000000000004</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
+      <c r="H7" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
         <v>24.538900000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
         <v>2.0021E-5</v>
       </c>
       <c r="F8" s="5">
@@ -754,28 +753,25 @@
       <c r="G8" s="5">
         <v>11.598699999999999</v>
       </c>
-      <c r="H8" s="5">
-        <v>1</v>
+      <c r="H8" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
         <v>26.946300000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5">
         <v>2.0000000000000001E-4</v>
@@ -786,28 +782,25 @@
       <c r="G9" s="5">
         <v>2.6644999999999999</v>
       </c>
-      <c r="H9" s="5">
-        <v>1</v>
+      <c r="H9" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
         <v>33.231299999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5">
         <v>2E-3</v>
@@ -818,30 +811,27 @@
       <c r="G10" s="5">
         <v>5.1363000000000003</v>
       </c>
-      <c r="H10" s="5">
-        <v>1</v>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
         <v>46.587800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
         <v>2.0027E-5</v>
       </c>
       <c r="F11" s="5">
@@ -850,28 +840,25 @@
       <c r="G11" s="5">
         <v>6.4348999999999998</v>
       </c>
-      <c r="H11" s="5">
-        <v>1</v>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
         <v>37.7166</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5">
         <v>2.0000000000000001E-4</v>
@@ -882,28 +869,25 @@
       <c r="G12" s="5">
         <v>2.1526999999999998</v>
       </c>
-      <c r="H12" s="5">
-        <v>1</v>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
         <v>37.755099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5">
         <v>2E-3</v>
@@ -914,30 +898,27 @@
       <c r="G13" s="5">
         <v>0.56769999999999998</v>
       </c>
-      <c r="H13" s="5">
-        <v>1</v>
+      <c r="H13" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
         <v>493.75659999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="7">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6">
         <v>2.0024E-5</v>
       </c>
       <c r="F14" s="5">
@@ -946,28 +927,25 @@
       <c r="G14" s="5">
         <v>8.4281000000000006</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
         <v>43.424500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5">
         <v>2.0000000000000001E-4</v>
@@ -978,28 +956,25 @@
       <c r="G15" s="5">
         <v>12.667299999999999</v>
       </c>
-      <c r="H15" s="5">
-        <v>1</v>
+      <c r="H15" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
         <v>47.644300000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="5">
         <v>1.9E-3</v>
@@ -1010,54 +985,50 @@
       <c r="G16" s="5">
         <v>1.5754999999999999</v>
       </c>
-      <c r="H16" s="5">
-        <v>1</v>
+      <c r="H16" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
         <v>58.134799999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6">
         <v>2.0024E-5</v>
       </c>
       <c r="F17" s="5">
         <v>100</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5">
         <v>1E-4</v>
@@ -1065,25 +1036,24 @@
       <c r="F18" s="5">
         <v>100</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="5">
         <v>2E-3</v>
@@ -1091,96 +1061,90 @@
       <c r="F19" s="5">
         <v>100</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="5">
+        <v>12.9192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>12.9192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
